--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/4_Ağrı_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/4_Ağrı_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79B67358-2300-46A7-A37F-0705ACEC4C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A714889E-3126-4B04-B92A-109CB81FC0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{768DE3CB-5EB9-4D6F-9549-FB3EF10B6EC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{1BE504BF-674B-4715-9D83-C8A0C1D3A76F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -925,15 +925,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D2BF7DD4-DC1D-4FE8-9F09-6576352E7875}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{30764C81-CCBB-4D13-8916-6BC48D17236A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{9F65BF6B-1FBD-4596-8AE3-1E29AB09F0F5}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{45CF5497-301F-4BDD-8C96-319081BF477A}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{17673A60-83D0-49E7-8613-563BAA35AD33}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{39872AD1-E250-4983-9F6E-B0614707E1BA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A4D43F60-CA42-47B3-8FA8-B76918502D31}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{AB319CF6-DCD2-487F-A061-D03AA20DB079}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{65745E03-87FB-4B55-BB35-D02198760E84}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EF351C6C-9447-4C42-ABCB-3994AC781580}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{050FDD82-367D-4879-BA2A-8B62E0CAC3A7}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{74D75122-3B91-4607-8101-4A1615BDAFA8}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{870CB1DB-3DAB-42D8-9F8C-D306AC4DBB47}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{39ACED0B-C24F-4B46-AFB4-BCAF3B0DA64B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2162B771-4282-423B-9CA1-F96B097000E2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{39304891-0A2C-46BE-BF02-1DE1D5C636B9}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{A03811C8-DD98-41B3-A37F-765195F3867E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B11F90BF-6D49-43EB-9343-ECE13C5EFAF7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1303,7 +1303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B03399F-5338-44B8-9BD5-D18134E7E189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36922C0-11E4-4C6F-BA50-F2ECEA09353B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2568,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0BB053-F491-4AA3-8F6A-87AAE58DA9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD1372A-4F62-47C0-9C47-441B00A16D5A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -3809,7 +3809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4D7F3-5FBB-406D-B708-D2BE744ECBA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A854E6F-ECA3-4F46-9722-DE9C1A367173}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -5044,7 +5044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E14854-8FFC-477E-8D33-99BE285AA045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3852077-B9CA-46EC-8BEE-1B298167CD44}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -6267,7 +6267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163E456C-FB87-47B5-9358-662BF40CB962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2361685-23CA-4D11-A91D-3B8D9385E2B2}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7541,7 +7541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA658274-4328-4598-AF1C-796D8D40789A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D017D20-8513-46EC-A683-BAA4250BF87C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8815,7 +8815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12196228-9F39-437E-BDCB-6ACF7B73B6DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0814DB6-7E39-4F50-9809-E5DC611A10AC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10089,7 +10089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFA4616-BC89-4650-AFFF-F8D80330BF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EBEF01-787D-4A58-A6A2-FA10B956CD16}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11363,7 +11363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68C9C56-1B47-4C51-947E-5045352FF51A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60ED1C-29F2-4F9A-8DF1-88E195CFF81C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12637,7 +12637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7153883-79C8-4E45-A26E-BF9EEC757A58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226E80FA-D766-4A5E-A7B1-F9830109C169}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13897,7 +13897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51DBF5A-DA84-4C07-B252-48A79E991E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078935F0-930F-4C5D-AA2E-C8C5AD06B96E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15157,7 +15157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2999E24C-E5FA-4D6B-82C7-661FEB487C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3811CD-B7A5-4525-8615-FABFC0DBC59A}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
